--- a/files/samples/CLASS 1-4 SEA-1.xlsx
+++ b/files/samples/CLASS 1-4 SEA-1.xlsx
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
         <v>45</v>
       </c>
       <c r="I8" s="7"/>
@@ -858,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H9:H56" si="0">SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>51</v>
       </c>
       <c r="I9" s="7"/>
